--- a/data/trans_camb/P10_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-0,84</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 5,64</t>
+          <t>-10,55; 8,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 2,06</t>
+          <t>-12,47; 8,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 0,52</t>
+          <t>-8,1; 6,06</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,83%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,18%</t>
+          <t>-8,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>-5,03%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 31,8</t>
+          <t>-54,8; 104,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 8,79</t>
+          <t>-50,92; 60,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 1,91</t>
+          <t>-37,61; 49,84</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,0</t>
+          <t>-1,15; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,0</t>
+          <t>-1,68; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,45</t>
+          <t>-0,87; 2,04</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,0%</t>
+          <t>43,35%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,49; 61,7</t>
+          <t>-55,62; 649,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,38; 40,79</t>
+          <t>-68,92; 315,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 19,83</t>
+          <t>-40,61; 245,84</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 9,2</t>
+          <t>-3,62; 8,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,93</t>
+          <t>-1,68; 4,19</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>373,52%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>313,99%</t>
+          <t>104,25%</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,9</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,94</t>
+          <t>-3,99; 2,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,59</t>
+          <t>-4,07; 3,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,92</t>
+          <t>-3,44; 1,53</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>-14,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-20,56%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>-9,55%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 55,29</t>
+          <t>-48,16; 40,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 7,36</t>
+          <t>-33,09; 28,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 13,85</t>
+          <t>-33,16; 17,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 1,93</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 0,37</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 0,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-7,97%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-19,15%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-14,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-38,65; 39,87</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-38,02; 5,05</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-33,25; 6,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P10_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.03723033984482649</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.1961779449019</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.108426857875816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 8,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,47; 8,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 6,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.18269232119746</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.82738714714107</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.175985589481058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,05%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,21%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.699786528961694</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.383497347691256</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.951543193814683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-54,8; 104,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-50,92; 60,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-37,61; 49,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.002612288544327108</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1177051330899746</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.06671646001169518</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.5297461454591536</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.5291095643758741</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3978836665445725</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 3,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 2,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 2,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.039137431092124</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.558367100230336</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4699437837600284</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>71,63%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>20,31%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>43,35%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.9567504502140574</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1549611047409291</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5410720036093863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-55,62; 649,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-68,92; 315,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-40,61; 245,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.210505374492893</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.872585652881627</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.97764397515128</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.139723661998185</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.991218631889593</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.867568906348891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 8,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 4,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.6663574429268286</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.09510354825799931</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.3519979474254848</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>95,58%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>104,25%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.56410025992855</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.7231167657646898</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4488346257299963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>6.351323340611828</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.745256590902983</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.269677595169382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,203 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.617200477338822</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.8350709825025109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 2,41</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 3,09</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 1,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.668919650891</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="n">
+        <v>-1.686075375311702</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-14,22%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-6,08%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-9,55%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.963086119444043</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="n">
+        <v>4.132657573523142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-48,16; 40,27</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-33,09; 28,74</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-33,16; 17,77</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.8859911171907252</v>
+      </c>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="n">
+        <v>0.9913031614170909</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 1,93</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 0,37</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 0,4</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-7,97%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-19,15%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-14,66%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.9720997847168622</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.0682047572556313</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4259826795342786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-38,65; 39,87</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-38,02; 5,05</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-33,25; 6,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.867961673086374</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.506465642677135</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.283558573815835</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.683887321512097</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.766521858318617</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.225448634571623</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.2594676376063073</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.01701187868181501</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.1096200979477231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3899899347759337</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.4585525085299006</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.285139460288005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.367525408134448</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6372655017897559</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.7035179554966623</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
